--- a/PWDCISegundoAvance/Diccionario de datos (2).xlsx
+++ b/PWDCISegundoAvance/Diccionario de datos (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="206">
   <si>
     <t>Columna</t>
   </si>
@@ -124,9 +124,6 @@
     <t>VARCHAR(45)</t>
   </si>
   <si>
-    <t>VARCHAR(1)</t>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -632,6 +629,15 @@
   </si>
   <si>
     <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ENUM('Maestro','Estudiante','Administrador')</t>
+  </si>
+  <si>
+    <t>Rol_Usuario</t>
+  </si>
+  <si>
+    <t>ENUM('Masculino','Femenino')</t>
   </si>
 </sst>
 </file>
@@ -722,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A9:I20" totalsRowShown="0">
-  <autoFilter ref="A9:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A9:I21" totalsRowShown="0">
+  <autoFilter ref="A9:I21"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -740,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla1561416" displayName="Tabla1561416" ref="A96:I103" totalsRowShown="0">
-  <autoFilter ref="A96:I103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla1561416" displayName="Tabla1561416" ref="A97:I104" totalsRowShown="0">
+  <autoFilter ref="A97:I104"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -758,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla1717" displayName="Tabla1717" ref="A107:I109" totalsRowShown="0">
-  <autoFilter ref="A107:I109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla1717" displayName="Tabla1717" ref="A108:I110" totalsRowShown="0">
+  <autoFilter ref="A108:I110"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -776,8 +782,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla15618" displayName="Tabla15618" ref="A113:I115" totalsRowShown="0">
-  <autoFilter ref="A113:I115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla15618" displayName="Tabla15618" ref="A114:I116" totalsRowShown="0">
+  <autoFilter ref="A114:I116"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -794,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla171719" displayName="Tabla171719" ref="A119:I121" totalsRowShown="0">
-  <autoFilter ref="A119:I121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla171719" displayName="Tabla171719" ref="A120:I122" totalsRowShown="0">
+  <autoFilter ref="A120:I122"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -812,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla1561820" displayName="Tabla1561820" ref="A125:I127" totalsRowShown="0">
-  <autoFilter ref="A125:I127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla1561820" displayName="Tabla1561820" ref="A126:I128" totalsRowShown="0">
+  <autoFilter ref="A126:I128"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -830,8 +836,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla17171921" displayName="Tabla17171921" ref="A131:I133" totalsRowShown="0">
-  <autoFilter ref="A131:I133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla17171921" displayName="Tabla17171921" ref="A132:I134" totalsRowShown="0">
+  <autoFilter ref="A132:I134"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -848,8 +854,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla1561822" displayName="Tabla1561822" ref="A137:I139" totalsRowShown="0">
-  <autoFilter ref="A137:I139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla1561822" displayName="Tabla1561822" ref="A138:I140" totalsRowShown="0">
+  <autoFilter ref="A138:I140"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -866,8 +872,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla17171923" displayName="Tabla17171923" ref="A143:I145" totalsRowShown="0">
-  <autoFilter ref="A143:I145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla17171923" displayName="Tabla17171923" ref="A144:I146" totalsRowShown="0">
+  <autoFilter ref="A144:I146"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -884,8 +890,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla156182224" displayName="Tabla156182224" ref="A149:I154" totalsRowShown="0">
-  <autoFilter ref="A149:I154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla156182224" displayName="Tabla156182224" ref="A150:I155" totalsRowShown="0">
+  <autoFilter ref="A150:I155"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -920,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla1568" displayName="Tabla1568" ref="A24:I27" totalsRowShown="0">
-  <autoFilter ref="A24:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla1568" displayName="Tabla1568" ref="A25:I28" totalsRowShown="0">
+  <autoFilter ref="A25:I28"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -956,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla179" displayName="Tabla179" ref="A31:I34" totalsRowShown="0">
-  <autoFilter ref="A31:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla179" displayName="Tabla179" ref="A32:I35" totalsRowShown="0">
+  <autoFilter ref="A32:I35"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -974,8 +980,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla156810" displayName="Tabla156810" ref="A38:I47" totalsRowShown="0">
-  <autoFilter ref="A38:I47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla156810" displayName="Tabla156810" ref="A39:I48" totalsRowShown="0">
+  <autoFilter ref="A39:I48"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -992,8 +998,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla17911" displayName="Tabla17911" ref="A51:I60" totalsRowShown="0">
-  <autoFilter ref="A51:I60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla17911" displayName="Tabla17911" ref="A52:I61" totalsRowShown="0">
+  <autoFilter ref="A52:I61"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -1010,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla156812" displayName="Tabla156812" ref="A64:I68" totalsRowShown="0">
-  <autoFilter ref="A64:I68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla156812" displayName="Tabla156812" ref="A65:I69" totalsRowShown="0">
+  <autoFilter ref="A65:I69"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -1028,8 +1034,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla1713" displayName="Tabla1713" ref="A72:I77" totalsRowShown="0">
-  <autoFilter ref="A72:I77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla1713" displayName="Tabla1713" ref="A73:I78" totalsRowShown="0">
+  <autoFilter ref="A73:I78"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -1046,8 +1052,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla15614" displayName="Tabla15614" ref="A81:I86" totalsRowShown="0">
-  <autoFilter ref="A81:I86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla15614" displayName="Tabla15614" ref="A82:I87" totalsRowShown="0">
+  <autoFilter ref="A82:I87"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -1064,8 +1070,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla1715" displayName="Tabla1715" ref="A90:I92" totalsRowShown="0">
-  <autoFilter ref="A90:I92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla1715" displayName="Tabla1715" ref="A91:I93" totalsRowShown="0">
+  <autoFilter ref="A91:I93"/>
   <tableColumns count="9">
     <tableColumn id="2" name="Columna"/>
     <tableColumn id="3" name="Tipo de dato"/>
@@ -1344,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1387,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,7 +1433,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1452,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,7 +1469,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1474,615 +1480,605 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="H26" t="s">
-        <v>18</v>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
         <v>56</v>
       </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
       </c>
       <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="H40" t="s">
-        <v>77</v>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C42" s="3"/>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3"/>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3"/>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3"/>
       <c r="I45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3"/>
       <c r="I46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>4</v>
+      <c r="A51" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="H53" t="s">
-        <v>96</v>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="4"/>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" t="s">
-        <v>12</v>
+      <c r="H55" t="s">
+        <v>96</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>111</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" t="s">
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" t="s">
-        <v>203</v>
+        <v>32</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="I58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
       <c r="I59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C60" s="4"/>
       <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="I61" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>4</v>
+      <c r="A64" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>32</v>
@@ -2092,90 +2088,91 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C67" s="4"/>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>96</v>
+      </c>
       <c r="I67" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="I69" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>4</v>
+      <c r="A72" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -2184,139 +2181,142 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
       </c>
-      <c r="D75" t="s">
-        <v>12</v>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>96</v>
       </c>
       <c r="I75" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
         <v>119</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
         <v>118</v>
       </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="I77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" t="s">
-        <v>203</v>
+        <v>32</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
       </c>
       <c r="I85" t="s">
         <v>133</v>
@@ -2324,530 +2324,527 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" t="s">
-        <v>4</v>
+      <c r="A90" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>96</v>
+      </c>
+      <c r="I92" t="s">
         <v>139</v>
       </c>
-      <c r="B92" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="I92" t="s">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="4"/>
+        <v>33</v>
+      </c>
       <c r="I101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" t="s">
-        <v>97</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C102" s="4"/>
       <c r="I102" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B103" t="s">
         <v>32</v>
       </c>
+      <c r="H103" t="s">
+        <v>96</v>
+      </c>
       <c r="I103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B109" t="s">
-        <v>32</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
         <v>18</v>
       </c>
-      <c r="I109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>157</v>
+      <c r="I110" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>3</v>
-      </c>
-      <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" t="s">
-        <v>4</v>
+      <c r="A113" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
       </c>
       <c r="I115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>162</v>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
-        <v>3</v>
-      </c>
-      <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" t="s">
-        <v>4</v>
+      <c r="A119" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H120" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>175</v>
+      </c>
+      <c r="I121" t="s">
         <v>164</v>
       </c>
-      <c r="B121" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>177</v>
-      </c>
-      <c r="I121" t="s">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>176</v>
+      </c>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
         <v>169</v>
       </c>
-      <c r="B127" t="s">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" t="s">
         <v>31</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
         <v>32</v>
@@ -2862,238 +2859,255 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>180</v>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>174</v>
+      </c>
+      <c r="I134" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>3</v>
-      </c>
-      <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" t="s">
-        <v>4</v>
+      <c r="A137" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
         <v>182</v>
       </c>
-      <c r="B139" t="s">
-        <v>75</v>
-      </c>
-      <c r="I139" t="s">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" t="s">
+        <v>32</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>175</v>
+      </c>
+      <c r="I145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
         <v>187</v>
       </c>
-      <c r="B145" t="s">
-        <v>32</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" t="s">
-        <v>188</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="I146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>3</v>
-      </c>
-      <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" t="s">
-        <v>15</v>
-      </c>
-      <c r="I149" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I152" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" t="s">
+        <v>95</v>
+      </c>
+      <c r="I153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s">
+        <v>96</v>
+      </c>
+      <c r="I154" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B153" t="s">
-        <v>32</v>
-      </c>
-      <c r="H153" t="s">
-        <v>97</v>
-      </c>
-      <c r="I153" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B154" t="s">
-        <v>36</v>
-      </c>
-      <c r="C154" t="s">
-        <v>203</v>
-      </c>
-      <c r="I154" t="s">
-        <v>199</v>
+      <c r="B155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" t="s">
+        <v>202</v>
+      </c>
+      <c r="I155" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3276,7 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
